--- a/MFCcontrol/bin/Release/GasFlow.xlsx
+++ b/MFCcontrol/bin/Release/GasFlow.xlsx
@@ -266,7 +266,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.05" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1000</v>
